--- a/data_clean/rr_table_low_interpolated.xlsx
+++ b/data_clean/rr_table_low_interpolated.xlsx
@@ -4685,6 +4685,306 @@
           <t>dairy</t>
         </is>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.9997</v>
+      </c>
+      <c r="D3">
+        <v>0.9994</v>
+      </c>
+      <c r="E3">
+        <v>0.9991</v>
+      </c>
+      <c r="F3">
+        <v>0.9988</v>
+      </c>
+      <c r="G3">
+        <v>0.9984999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.9982</v>
+      </c>
+      <c r="I3">
+        <v>0.9979</v>
+      </c>
+      <c r="J3">
+        <v>0.9976</v>
+      </c>
+      <c r="K3">
+        <v>0.9973</v>
+      </c>
+      <c r="L3">
+        <v>0.997</v>
+      </c>
+      <c r="M3">
+        <v>0.9967</v>
+      </c>
+      <c r="N3">
+        <v>0.9964</v>
+      </c>
+      <c r="O3">
+        <v>0.9961</v>
+      </c>
+      <c r="P3">
+        <v>0.9958</v>
+      </c>
+      <c r="Q3">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.9952</v>
+      </c>
+      <c r="S3">
+        <v>0.9949</v>
+      </c>
+      <c r="T3">
+        <v>0.9946</v>
+      </c>
+      <c r="U3">
+        <v>0.9943</v>
+      </c>
+      <c r="V3">
+        <v>0.994</v>
+      </c>
+      <c r="W3">
+        <v>0.9937</v>
+      </c>
+      <c r="X3">
+        <v>0.9933999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.9931</v>
+      </c>
+      <c r="Z3">
+        <v>0.9928</v>
+      </c>
+      <c r="AA3">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.9922</v>
+      </c>
+      <c r="AC3">
+        <v>0.9919</v>
+      </c>
+      <c r="AD3">
+        <v>0.9916</v>
+      </c>
+      <c r="AE3">
+        <v>0.9913</v>
+      </c>
+      <c r="AF3">
+        <v>0.991</v>
+      </c>
+      <c r="AG3">
+        <v>0.9907</v>
+      </c>
+      <c r="AH3">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.9901</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9898</v>
+      </c>
+      <c r="AK3">
+        <v>0.9895</v>
+      </c>
+      <c r="AL3">
+        <v>0.9892</v>
+      </c>
+      <c r="AM3">
+        <v>0.9889</v>
+      </c>
+      <c r="AN3">
+        <v>0.9886</v>
+      </c>
+      <c r="AO3">
+        <v>0.9883</v>
+      </c>
+      <c r="AP3">
+        <v>0.988</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9877</v>
+      </c>
+      <c r="AR3">
+        <v>0.9873999999999999</v>
+      </c>
+      <c r="AS3">
+        <v>0.9871</v>
+      </c>
+      <c r="AT3">
+        <v>0.9868</v>
+      </c>
+      <c r="AU3">
+        <v>0.9864999999999999</v>
+      </c>
+      <c r="AV3">
+        <v>0.9862</v>
+      </c>
+      <c r="AW3">
+        <v>0.9859</v>
+      </c>
+      <c r="AX3">
+        <v>0.9856</v>
+      </c>
+      <c r="AY3">
+        <v>0.9853</v>
+      </c>
+      <c r="AZ3">
+        <v>0.985</v>
+      </c>
+      <c r="BA3">
+        <v>0.9847</v>
+      </c>
+      <c r="BB3">
+        <v>0.9843999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.9841</v>
+      </c>
+      <c r="BD3">
+        <v>0.9838</v>
+      </c>
+      <c r="BE3">
+        <v>0.9835</v>
+      </c>
+      <c r="BF3">
+        <v>0.9832</v>
+      </c>
+      <c r="BG3">
+        <v>0.9829</v>
+      </c>
+      <c r="BH3">
+        <v>0.9826</v>
+      </c>
+      <c r="BI3">
+        <v>0.9823</v>
+      </c>
+      <c r="BJ3">
+        <v>0.982</v>
+      </c>
+      <c r="BK3">
+        <v>0.9817</v>
+      </c>
+      <c r="BL3">
+        <v>0.9813999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.9811</v>
+      </c>
+      <c r="BN3">
+        <v>0.9808</v>
+      </c>
+      <c r="BO3">
+        <v>0.9804999999999999</v>
+      </c>
+      <c r="BP3">
+        <v>0.9802</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9799</v>
+      </c>
+      <c r="BR3">
+        <v>0.9796</v>
+      </c>
+      <c r="BS3">
+        <v>0.9792999999999999</v>
+      </c>
+      <c r="BT3">
+        <v>0.979</v>
+      </c>
+      <c r="BU3">
+        <v>0.9787</v>
+      </c>
+      <c r="BV3">
+        <v>0.9783999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.9781</v>
+      </c>
+      <c r="BX3">
+        <v>0.9778</v>
+      </c>
+      <c r="BY3">
+        <v>0.9775</v>
+      </c>
+      <c r="BZ3">
+        <v>0.9772</v>
+      </c>
+      <c r="CA3">
+        <v>0.9769</v>
+      </c>
+      <c r="CB3">
+        <v>0.9766</v>
+      </c>
+      <c r="CC3">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="CD3">
+        <v>0.976</v>
+      </c>
+      <c r="CE3">
+        <v>0.9757</v>
+      </c>
+      <c r="CF3">
+        <v>0.9753999999999999</v>
+      </c>
+      <c r="CG3">
+        <v>0.9751</v>
+      </c>
+      <c r="CH3">
+        <v>0.9748</v>
+      </c>
+      <c r="CI3">
+        <v>0.9744999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.9742</v>
+      </c>
+      <c r="CK3">
+        <v>0.9739</v>
+      </c>
+      <c r="CL3">
+        <v>0.9736</v>
+      </c>
+      <c r="CM3">
+        <v>0.9732999999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.973</v>
+      </c>
+      <c r="CO3">
+        <v>0.9727</v>
+      </c>
+      <c r="CP3">
+        <v>0.9723999999999999</v>
+      </c>
+      <c r="CQ3">
+        <v>0.9721</v>
+      </c>
+      <c r="CR3">
+        <v>0.9718</v>
+      </c>
+      <c r="CS3">
+        <v>0.9715</v>
+      </c>
+      <c r="CT3">
+        <v>0.9712</v>
+      </c>
+      <c r="CU3">
+        <v>0.9709</v>
+      </c>
+      <c r="CV3">
+        <v>0.9706</v>
+      </c>
+      <c r="CW3">
+        <v>0.9702999999999999</v>
+      </c>
       <c r="CX3">
         <v>0.97</v>
       </c>
@@ -6795,6 +7095,81 @@
           <t>eggs</t>
         </is>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.9968</v>
+      </c>
+      <c r="D4">
+        <v>0.9936</v>
+      </c>
+      <c r="E4">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.9872</v>
+      </c>
+      <c r="G4">
+        <v>0.984</v>
+      </c>
+      <c r="H4">
+        <v>0.9808</v>
+      </c>
+      <c r="I4">
+        <v>0.9776</v>
+      </c>
+      <c r="J4">
+        <v>0.9743999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.9712</v>
+      </c>
+      <c r="L4">
+        <v>0.968</v>
+      </c>
+      <c r="M4">
+        <v>0.9648</v>
+      </c>
+      <c r="N4">
+        <v>0.9616</v>
+      </c>
+      <c r="O4">
+        <v>0.9583999999999999</v>
+      </c>
+      <c r="P4">
+        <v>0.9551999999999999</v>
+      </c>
+      <c r="Q4">
+        <v>0.952</v>
+      </c>
+      <c r="R4">
+        <v>0.9488</v>
+      </c>
+      <c r="S4">
+        <v>0.9456</v>
+      </c>
+      <c r="T4">
+        <v>0.9423999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.9391999999999999</v>
+      </c>
+      <c r="V4">
+        <v>0.9359999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.9328</v>
+      </c>
+      <c r="X4">
+        <v>0.9296</v>
+      </c>
+      <c r="Y4">
+        <v>0.9263999999999999</v>
+      </c>
+      <c r="Z4">
+        <v>0.9231999999999999</v>
+      </c>
       <c r="AA4">
         <v>0.9199999999999999</v>
       </c>
@@ -7330,6 +7705,156 @@
           <t>fish</t>
         </is>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.9984999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.997</v>
+      </c>
+      <c r="E5">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.994</v>
+      </c>
+      <c r="G5">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.991</v>
+      </c>
+      <c r="I5">
+        <v>0.9894999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.988</v>
+      </c>
+      <c r="K5">
+        <v>0.9864999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.985</v>
+      </c>
+      <c r="M5">
+        <v>0.9835</v>
+      </c>
+      <c r="N5">
+        <v>0.982</v>
+      </c>
+      <c r="O5">
+        <v>0.9804999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.979</v>
+      </c>
+      <c r="Q5">
+        <v>0.9775</v>
+      </c>
+      <c r="R5">
+        <v>0.976</v>
+      </c>
+      <c r="S5">
+        <v>0.9744999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.973</v>
+      </c>
+      <c r="U5">
+        <v>0.9715</v>
+      </c>
+      <c r="V5">
+        <v>0.97</v>
+      </c>
+      <c r="W5">
+        <v>0.9684999999999999</v>
+      </c>
+      <c r="X5">
+        <v>0.967</v>
+      </c>
+      <c r="Y5">
+        <v>0.9655</v>
+      </c>
+      <c r="Z5">
+        <v>0.964</v>
+      </c>
+      <c r="AA5">
+        <v>0.9624999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.961</v>
+      </c>
+      <c r="AC5">
+        <v>0.9595</v>
+      </c>
+      <c r="AD5">
+        <v>0.958</v>
+      </c>
+      <c r="AE5">
+        <v>0.9564999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.955</v>
+      </c>
+      <c r="AG5">
+        <v>0.9535</v>
+      </c>
+      <c r="AH5">
+        <v>0.952</v>
+      </c>
+      <c r="AI5">
+        <v>0.9504999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.949</v>
+      </c>
+      <c r="AK5">
+        <v>0.9475</v>
+      </c>
+      <c r="AL5">
+        <v>0.946</v>
+      </c>
+      <c r="AM5">
+        <v>0.9444999999999999</v>
+      </c>
+      <c r="AN5">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.9415</v>
+      </c>
+      <c r="AP5">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ5">
+        <v>0.9385</v>
+      </c>
+      <c r="AR5">
+        <v>0.9369999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.9355</v>
+      </c>
+      <c r="AT5">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="AU5">
+        <v>0.9324999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0.9309999999999999</v>
+      </c>
+      <c r="AW5">
+        <v>0.9295</v>
+      </c>
+      <c r="AX5">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AY5">
+        <v>0.9264999999999999</v>
+      </c>
       <c r="AZ5">
         <v>0.9249999999999999</v>
       </c>
@@ -11400,6 +11925,306 @@
           <t>legumes</t>
         </is>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0.9985000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.997</v>
+      </c>
+      <c r="E7">
+        <v>0.9955000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.994</v>
+      </c>
+      <c r="G7">
+        <v>0.9925</v>
+      </c>
+      <c r="H7">
+        <v>0.991</v>
+      </c>
+      <c r="I7">
+        <v>0.9895</v>
+      </c>
+      <c r="J7">
+        <v>0.988</v>
+      </c>
+      <c r="K7">
+        <v>0.9865</v>
+      </c>
+      <c r="L7">
+        <v>0.985</v>
+      </c>
+      <c r="M7">
+        <v>0.9835</v>
+      </c>
+      <c r="N7">
+        <v>0.982</v>
+      </c>
+      <c r="O7">
+        <v>0.9805</v>
+      </c>
+      <c r="P7">
+        <v>0.979</v>
+      </c>
+      <c r="Q7">
+        <v>0.9775</v>
+      </c>
+      <c r="R7">
+        <v>0.976</v>
+      </c>
+      <c r="S7">
+        <v>0.9745</v>
+      </c>
+      <c r="T7">
+        <v>0.973</v>
+      </c>
+      <c r="U7">
+        <v>0.9715</v>
+      </c>
+      <c r="V7">
+        <v>0.97</v>
+      </c>
+      <c r="W7">
+        <v>0.9685</v>
+      </c>
+      <c r="X7">
+        <v>0.967</v>
+      </c>
+      <c r="Y7">
+        <v>0.9655</v>
+      </c>
+      <c r="Z7">
+        <v>0.964</v>
+      </c>
+      <c r="AA7">
+        <v>0.9625</v>
+      </c>
+      <c r="AB7">
+        <v>0.961</v>
+      </c>
+      <c r="AC7">
+        <v>0.9595</v>
+      </c>
+      <c r="AD7">
+        <v>0.958</v>
+      </c>
+      <c r="AE7">
+        <v>0.9565</v>
+      </c>
+      <c r="AF7">
+        <v>0.955</v>
+      </c>
+      <c r="AG7">
+        <v>0.9535</v>
+      </c>
+      <c r="AH7">
+        <v>0.952</v>
+      </c>
+      <c r="AI7">
+        <v>0.9505</v>
+      </c>
+      <c r="AJ7">
+        <v>0.949</v>
+      </c>
+      <c r="AK7">
+        <v>0.9475</v>
+      </c>
+      <c r="AL7">
+        <v>0.946</v>
+      </c>
+      <c r="AM7">
+        <v>0.9445</v>
+      </c>
+      <c r="AN7">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="AO7">
+        <v>0.9415</v>
+      </c>
+      <c r="AP7">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.9385</v>
+      </c>
+      <c r="AR7">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.9355</v>
+      </c>
+      <c r="AT7">
+        <v>0.9339999999999999</v>
+      </c>
+      <c r="AU7">
+        <v>0.9325</v>
+      </c>
+      <c r="AV7">
+        <v>0.9309999999999999</v>
+      </c>
+      <c r="AW7">
+        <v>0.9295</v>
+      </c>
+      <c r="AX7">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AY7">
+        <v>0.9265</v>
+      </c>
+      <c r="AZ7">
+        <v>0.925</v>
+      </c>
+      <c r="BA7">
+        <v>0.9235</v>
+      </c>
+      <c r="BB7">
+        <v>0.9219999999999999</v>
+      </c>
+      <c r="BC7">
+        <v>0.9205</v>
+      </c>
+      <c r="BD7">
+        <v>0.919</v>
+      </c>
+      <c r="BE7">
+        <v>0.9175</v>
+      </c>
+      <c r="BF7">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="BG7">
+        <v>0.9145</v>
+      </c>
+      <c r="BH7">
+        <v>0.913</v>
+      </c>
+      <c r="BI7">
+        <v>0.9115</v>
+      </c>
+      <c r="BJ7">
+        <v>0.91</v>
+      </c>
+      <c r="BK7">
+        <v>0.9085</v>
+      </c>
+      <c r="BL7">
+        <v>0.907</v>
+      </c>
+      <c r="BM7">
+        <v>0.9055</v>
+      </c>
+      <c r="BN7">
+        <v>0.904</v>
+      </c>
+      <c r="BO7">
+        <v>0.9025</v>
+      </c>
+      <c r="BP7">
+        <v>0.901</v>
+      </c>
+      <c r="BQ7">
+        <v>0.8995</v>
+      </c>
+      <c r="BR7">
+        <v>0.898</v>
+      </c>
+      <c r="BS7">
+        <v>0.8965</v>
+      </c>
+      <c r="BT7">
+        <v>0.895</v>
+      </c>
+      <c r="BU7">
+        <v>0.8935</v>
+      </c>
+      <c r="BV7">
+        <v>0.892</v>
+      </c>
+      <c r="BW7">
+        <v>0.8905</v>
+      </c>
+      <c r="BX7">
+        <v>0.889</v>
+      </c>
+      <c r="BY7">
+        <v>0.8875</v>
+      </c>
+      <c r="BZ7">
+        <v>0.886</v>
+      </c>
+      <c r="CA7">
+        <v>0.8845</v>
+      </c>
+      <c r="CB7">
+        <v>0.883</v>
+      </c>
+      <c r="CC7">
+        <v>0.8815</v>
+      </c>
+      <c r="CD7">
+        <v>0.88</v>
+      </c>
+      <c r="CE7">
+        <v>0.8784999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.877</v>
+      </c>
+      <c r="CG7">
+        <v>0.8754999999999999</v>
+      </c>
+      <c r="CH7">
+        <v>0.874</v>
+      </c>
+      <c r="CI7">
+        <v>0.8725000000000001</v>
+      </c>
+      <c r="CJ7">
+        <v>0.871</v>
+      </c>
+      <c r="CK7">
+        <v>0.8694999999999999</v>
+      </c>
+      <c r="CL7">
+        <v>0.868</v>
+      </c>
+      <c r="CM7">
+        <v>0.8664999999999999</v>
+      </c>
+      <c r="CN7">
+        <v>0.865</v>
+      </c>
+      <c r="CO7">
+        <v>0.8634999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.862</v>
+      </c>
+      <c r="CQ7">
+        <v>0.8604999999999999</v>
+      </c>
+      <c r="CR7">
+        <v>0.859</v>
+      </c>
+      <c r="CS7">
+        <v>0.8574999999999999</v>
+      </c>
+      <c r="CT7">
+        <v>0.856</v>
+      </c>
+      <c r="CU7">
+        <v>0.8545</v>
+      </c>
+      <c r="CV7">
+        <v>0.853</v>
+      </c>
+      <c r="CW7">
+        <v>0.8514999999999999</v>
+      </c>
       <c r="CX7">
         <v>0.85</v>
       </c>
@@ -12910,6 +13735,81 @@
           <t>nuts</t>
         </is>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.9928</v>
+      </c>
+      <c r="D8">
+        <v>0.9856</v>
+      </c>
+      <c r="E8">
+        <v>0.9784</v>
+      </c>
+      <c r="F8">
+        <v>0.9712</v>
+      </c>
+      <c r="G8">
+        <v>0.964</v>
+      </c>
+      <c r="H8">
+        <v>0.9568</v>
+      </c>
+      <c r="I8">
+        <v>0.9496</v>
+      </c>
+      <c r="J8">
+        <v>0.9424</v>
+      </c>
+      <c r="K8">
+        <v>0.9352</v>
+      </c>
+      <c r="L8">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.9208</v>
+      </c>
+      <c r="N8">
+        <v>0.9136</v>
+      </c>
+      <c r="O8">
+        <v>0.9064</v>
+      </c>
+      <c r="P8">
+        <v>0.8992</v>
+      </c>
+      <c r="Q8">
+        <v>0.892</v>
+      </c>
+      <c r="R8">
+        <v>0.8847999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.8775999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.8704</v>
+      </c>
+      <c r="U8">
+        <v>0.8632</v>
+      </c>
+      <c r="V8">
+        <v>0.856</v>
+      </c>
+      <c r="W8">
+        <v>0.8488</v>
+      </c>
+      <c r="X8">
+        <v>0.8415999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.8343999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.8271999999999999</v>
+      </c>
       <c r="AA8">
         <v>0.82</v>
       </c>
@@ -16915,6 +17815,156 @@
           <t>reffined_grains</t>
         </is>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.9976</v>
+      </c>
+      <c r="D11">
+        <v>0.9952</v>
+      </c>
+      <c r="E11">
+        <v>0.9928</v>
+      </c>
+      <c r="F11">
+        <v>0.9903999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.988</v>
+      </c>
+      <c r="H11">
+        <v>0.9856</v>
+      </c>
+      <c r="I11">
+        <v>0.9832</v>
+      </c>
+      <c r="J11">
+        <v>0.9808</v>
+      </c>
+      <c r="K11">
+        <v>0.9783999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.976</v>
+      </c>
+      <c r="M11">
+        <v>0.9736</v>
+      </c>
+      <c r="N11">
+        <v>0.9712</v>
+      </c>
+      <c r="O11">
+        <v>0.9688</v>
+      </c>
+      <c r="P11">
+        <v>0.9663999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.964</v>
+      </c>
+      <c r="R11">
+        <v>0.9616</v>
+      </c>
+      <c r="S11">
+        <v>0.9591999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.9568</v>
+      </c>
+      <c r="U11">
+        <v>0.9543999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.952</v>
+      </c>
+      <c r="W11">
+        <v>0.9496</v>
+      </c>
+      <c r="X11">
+        <v>0.9471999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>0.9448</v>
+      </c>
+      <c r="Z11">
+        <v>0.9423999999999999</v>
+      </c>
+      <c r="AA11">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.9376</v>
+      </c>
+      <c r="AC11">
+        <v>0.9351999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.9328</v>
+      </c>
+      <c r="AE11">
+        <v>0.9303999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.9279999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.9256</v>
+      </c>
+      <c r="AH11">
+        <v>0.9231999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.9208</v>
+      </c>
+      <c r="AJ11">
+        <v>0.9183999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.9159999999999999</v>
+      </c>
+      <c r="AL11">
+        <v>0.9136</v>
+      </c>
+      <c r="AM11">
+        <v>0.9111999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.9087999999999999</v>
+      </c>
+      <c r="AO11">
+        <v>0.9063999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>0.9039999999999999</v>
+      </c>
+      <c r="AQ11">
+        <v>0.9016</v>
+      </c>
+      <c r="AR11">
+        <v>0.8991999999999999</v>
+      </c>
+      <c r="AS11">
+        <v>0.8967999999999999</v>
+      </c>
+      <c r="AT11">
+        <v>0.8943999999999999</v>
+      </c>
+      <c r="AU11">
+        <v>0.8919999999999999</v>
+      </c>
+      <c r="AV11">
+        <v>0.8895999999999999</v>
+      </c>
+      <c r="AW11">
+        <v>0.8871999999999999</v>
+      </c>
+      <c r="AX11">
+        <v>0.8847999999999999</v>
+      </c>
+      <c r="AY11">
+        <v>0.8823999999999999</v>
+      </c>
       <c r="AZ11">
         <v>0.8799999999999999</v>
       </c>
@@ -20685,6 +21735,156 @@
           <t>vegetables</t>
         </is>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.9983</v>
+      </c>
+      <c r="D13">
+        <v>0.9966</v>
+      </c>
+      <c r="E13">
+        <v>0.9949</v>
+      </c>
+      <c r="F13">
+        <v>0.9932</v>
+      </c>
+      <c r="G13">
+        <v>0.9915</v>
+      </c>
+      <c r="H13">
+        <v>0.9898</v>
+      </c>
+      <c r="I13">
+        <v>0.9881</v>
+      </c>
+      <c r="J13">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.9847</v>
+      </c>
+      <c r="L13">
+        <v>0.983</v>
+      </c>
+      <c r="M13">
+        <v>0.9813000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.9796</v>
+      </c>
+      <c r="O13">
+        <v>0.9779</v>
+      </c>
+      <c r="P13">
+        <v>0.9762</v>
+      </c>
+      <c r="Q13">
+        <v>0.9745</v>
+      </c>
+      <c r="R13">
+        <v>0.9728</v>
+      </c>
+      <c r="S13">
+        <v>0.9711</v>
+      </c>
+      <c r="T13">
+        <v>0.9694</v>
+      </c>
+      <c r="U13">
+        <v>0.9677</v>
+      </c>
+      <c r="V13">
+        <v>0.966</v>
+      </c>
+      <c r="W13">
+        <v>0.9643</v>
+      </c>
+      <c r="X13">
+        <v>0.9626</v>
+      </c>
+      <c r="Y13">
+        <v>0.9609</v>
+      </c>
+      <c r="Z13">
+        <v>0.9592000000000001</v>
+      </c>
+      <c r="AA13">
+        <v>0.9575</v>
+      </c>
+      <c r="AB13">
+        <v>0.9558</v>
+      </c>
+      <c r="AC13">
+        <v>0.9541000000000001</v>
+      </c>
+      <c r="AD13">
+        <v>0.9524</v>
+      </c>
+      <c r="AE13">
+        <v>0.9507</v>
+      </c>
+      <c r="AF13">
+        <v>0.9490000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>0.9473</v>
+      </c>
+      <c r="AH13">
+        <v>0.9456</v>
+      </c>
+      <c r="AI13">
+        <v>0.9439000000000001</v>
+      </c>
+      <c r="AJ13">
+        <v>0.9422</v>
+      </c>
+      <c r="AK13">
+        <v>0.9405</v>
+      </c>
+      <c r="AL13">
+        <v>0.9388000000000001</v>
+      </c>
+      <c r="AM13">
+        <v>0.9371</v>
+      </c>
+      <c r="AN13">
+        <v>0.9354</v>
+      </c>
+      <c r="AO13">
+        <v>0.9337</v>
+      </c>
+      <c r="AP13">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="AQ13">
+        <v>0.9303</v>
+      </c>
+      <c r="AR13">
+        <v>0.9286000000000001</v>
+      </c>
+      <c r="AS13">
+        <v>0.9269000000000001</v>
+      </c>
+      <c r="AT13">
+        <v>0.9252</v>
+      </c>
+      <c r="AU13">
+        <v>0.9235</v>
+      </c>
+      <c r="AV13">
+        <v>0.9218000000000001</v>
+      </c>
+      <c r="AW13">
+        <v>0.9201</v>
+      </c>
+      <c r="AX13">
+        <v>0.9184</v>
+      </c>
+      <c r="AY13">
+        <v>0.9167000000000001</v>
+      </c>
       <c r="AZ13">
         <v>0.915</v>
       </c>
@@ -24154,6 +25354,156 @@
         <is>
           <t>whole_grains</t>
         </is>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0.9972</v>
+      </c>
+      <c r="D15">
+        <v>0.9944</v>
+      </c>
+      <c r="E15">
+        <v>0.9916</v>
+      </c>
+      <c r="F15">
+        <v>0.9888</v>
+      </c>
+      <c r="G15">
+        <v>0.986</v>
+      </c>
+      <c r="H15">
+        <v>0.9832</v>
+      </c>
+      <c r="I15">
+        <v>0.9804</v>
+      </c>
+      <c r="J15">
+        <v>0.9776</v>
+      </c>
+      <c r="K15">
+        <v>0.9748</v>
+      </c>
+      <c r="L15">
+        <v>0.972</v>
+      </c>
+      <c r="M15">
+        <v>0.9692</v>
+      </c>
+      <c r="N15">
+        <v>0.9664</v>
+      </c>
+      <c r="O15">
+        <v>0.9636</v>
+      </c>
+      <c r="P15">
+        <v>0.9608</v>
+      </c>
+      <c r="Q15">
+        <v>0.958</v>
+      </c>
+      <c r="R15">
+        <v>0.9552</v>
+      </c>
+      <c r="S15">
+        <v>0.9524</v>
+      </c>
+      <c r="T15">
+        <v>0.9496</v>
+      </c>
+      <c r="U15">
+        <v>0.9468</v>
+      </c>
+      <c r="V15">
+        <v>0.944</v>
+      </c>
+      <c r="W15">
+        <v>0.9412</v>
+      </c>
+      <c r="X15">
+        <v>0.9384</v>
+      </c>
+      <c r="Y15">
+        <v>0.9356</v>
+      </c>
+      <c r="Z15">
+        <v>0.9328</v>
+      </c>
+      <c r="AA15">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.9272</v>
+      </c>
+      <c r="AC15">
+        <v>0.9244</v>
+      </c>
+      <c r="AD15">
+        <v>0.9216</v>
+      </c>
+      <c r="AE15">
+        <v>0.9188</v>
+      </c>
+      <c r="AF15">
+        <v>0.916</v>
+      </c>
+      <c r="AG15">
+        <v>0.9132</v>
+      </c>
+      <c r="AH15">
+        <v>0.9104</v>
+      </c>
+      <c r="AI15">
+        <v>0.9076</v>
+      </c>
+      <c r="AJ15">
+        <v>0.9047999999999999</v>
+      </c>
+      <c r="AK15">
+        <v>0.902</v>
+      </c>
+      <c r="AL15">
+        <v>0.8992</v>
+      </c>
+      <c r="AM15">
+        <v>0.8964</v>
+      </c>
+      <c r="AN15">
+        <v>0.8935999999999999</v>
+      </c>
+      <c r="AO15">
+        <v>0.8908</v>
+      </c>
+      <c r="AP15">
+        <v>0.888</v>
+      </c>
+      <c r="AQ15">
+        <v>0.8852</v>
+      </c>
+      <c r="AR15">
+        <v>0.8824</v>
+      </c>
+      <c r="AS15">
+        <v>0.8795999999999999</v>
+      </c>
+      <c r="AT15">
+        <v>0.8768</v>
+      </c>
+      <c r="AU15">
+        <v>0.874</v>
+      </c>
+      <c r="AV15">
+        <v>0.8712</v>
+      </c>
+      <c r="AW15">
+        <v>0.8684000000000001</v>
+      </c>
+      <c r="AX15">
+        <v>0.8655999999999999</v>
+      </c>
+      <c r="AY15">
+        <v>0.8628</v>
       </c>
       <c r="AZ15">
         <v>0.86</v>
